--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="base_uel" sheetId="1" r:id="rId1"/>
+    <sheet name="base_urll" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,14 +75,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -91,34 +83,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +96,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -140,19 +156,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,52 +209,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,37 +219,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,145 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +410,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,63 +496,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,133 +530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,7 +989,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhangmingyue\my\test\practice_pro\testCase\casedata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC39076-6984-4756-8C58-F283BB91A5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base_urll" sheetId="3" r:id="rId1"/>
@@ -21,70 +15,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>base_url</t>
   </si>
   <si>
+    <t>Querymeetingstatus</t>
+  </si>
+  <si>
+    <t>https://sdk.xylink.com/api/rest/external/v1/conferenceControl/</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
     <t>https://sdk.xylink.com/api/rest/external/v1/conferenceControl/invitation?enterpriseId=</t>
   </si>
   <si>
+    <t>kickoutmeeting_url</t>
+  </si>
+  <si>
+    <t>Mainscreen</t>
+  </si>
+  <si>
+    <t>Nospeaking</t>
+  </si>
+  <si>
+    <t>Allowspeaking</t>
+  </si>
+  <si>
+    <t>Sendsubtitles</t>
+  </si>
+  <si>
+    <t>Endmeeting</t>
+  </si>
+  <si>
     <t>parameters</t>
   </si>
   <si>
     <t>values</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>callNumber</t>
   </si>
   <si>
-    <t>deviceList</t>
-  </si>
-  <si>
-    <t>Querymeetingstatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sdk.xylink.com/api/rest/external/v1/conferenceControl/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invitation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>kickoutmeeting_url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mainscreen</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nospeaking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allowspeaking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sendsubtitles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Endmeeting</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>device_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,7 +85,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,27 +92,341 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,12 +434,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -146,25 +686,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,148 +1005,167 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBE1BD8-1644-41A5-A739-3A151D9DE269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="88.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="88.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" ht="13.5" spans="2:2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" ht="13.5" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" ht="13.5" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" ht="13.5" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/invitation?enterpriseId=" xr:uid="{BF7FD2C0-175A-4775-B42D-A962FD3183D4}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{A9EE564E-189B-4016-81AA-AEF5BA91CE24}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C4A378F3-BD1D-4F9A-9BDD-B671F42C9518}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{81F01B71-1F7D-40FF-8B2C-0FD50227064E}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{165B4638-2E6D-4295-BA09-1B47B645A1C1}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{34151295-C41E-4476-B623-47B22878FE30}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{B798BC8A-8234-47BB-9CCF-15E55E1DB917}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DA82BA20-B93B-4D91-95EE-1B11B8AACB32}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/invitation?enterpriseId=" tooltip="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/invitation?enterpriseId="/>
+    <hyperlink ref="B2" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="4" max="5" width="9.375"/>
+    <col min="6" max="7" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>9005853980</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>20734806</v>
+      </c>
+      <c r="C3">
+        <v>430819</v>
+      </c>
+      <c r="D3">
+        <v>20705276</v>
+      </c>
+      <c r="E3">
+        <v>20263947</v>
+      </c>
+      <c r="F3">
+        <v>18710881118</v>
+      </c>
+      <c r="G3">
+        <v>18710881116</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>base_url</t>
   </si>
@@ -59,7 +59,13 @@
     <t>callNumber</t>
   </si>
   <si>
+    <t>9005853980</t>
+  </si>
+  <si>
     <t>device_number</t>
+  </si>
+  <si>
+    <t>20198942</t>
   </si>
 </sst>
 </file>
@@ -67,12 +73,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +96,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,52 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,33 +186,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,36 +230,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,25 +240,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,157 +378,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +431,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,6 +471,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,59 +531,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,144 +551,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1016,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
@@ -1032,7 +1034,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1040,7 +1042,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1048,7 +1050,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1056,7 +1058,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1064,7 +1066,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1072,23 +1074,23 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1114,13 +1116,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="2" max="2" width="12.775" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.375"/>
     <col min="6" max="7" width="12.625"/>
   </cols>
@@ -1129,7 +1131,7 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1137,30 +1139,30 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>9005853980</v>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>20734806</v>
-      </c>
-      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
         <v>430819</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>20705276</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>20263947</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>18710881118</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>18710881116</v>
       </c>
     </row>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -62,7 +62,7 @@
     <t>callNumber</t>
   </si>
   <si>
-    <t>deviceList</t>
+    <t>device_number</t>
   </si>
 </sst>
 </file>
@@ -71,8 +71,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -92,52 +92,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,41 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,15 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,187 +237,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +428,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,8 +449,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,24 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -93,6 +93,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,7 +114,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,34 +129,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -144,25 +159,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,41 +191,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,43 +237,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,120 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,12 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,8 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,24 +510,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,36 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +548,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,115 +566,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1094,7 @@
     <hyperlink ref="B2" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
     <hyperlink ref="B4" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
     <hyperlink ref="B5" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/" tooltip="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
     <hyperlink ref="B7" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
     <hyperlink ref="B8" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
     <hyperlink ref="B9" r:id="rId2" display="https://sdk.xylink.com/api/rest/external/v1/conferenceControl/"/>
@@ -1107,16 +1107,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="3" max="4" width="9.375"/>
+    <col min="5" max="5" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1132,14 +1134,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>9005853980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
+      </c>
+      <c r="B4">
+        <v>20705276</v>
+      </c>
+      <c r="C4">
+        <v>20426187</v>
+      </c>
+      <c r="D4">
+        <v>20263947</v>
+      </c>
+      <c r="E4">
+        <v>18710881116</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="base_urll" sheetId="3" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="base_url" sheetId="3" r:id="rId1"/>
+    <sheet name="test_data" sheetId="4" r:id="rId2"/>
+    <sheet name="result" sheetId="2" r:id="rId3"/>
+    <sheet name="test" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>base_url</t>
   </si>
@@ -50,19 +52,22 @@
     <t>Endmeeting</t>
   </si>
   <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>callNumber</t>
-  </si>
-  <si>
-    <t>device_number</t>
+    <t>test_QueryMeetingStatus001</t>
+  </si>
+  <si>
+    <t>callNumber:9005853980</t>
+  </si>
+  <si>
+    <t>test_Invitation001</t>
+  </si>
+  <si>
+    <t>device_number:20705276,20426187,20263947,18710881116</t>
+  </si>
+  <si>
+    <t>expected_code:200</t>
+  </si>
+  <si>
+    <t>expected_msg:</t>
   </si>
 </sst>
 </file>
@@ -93,43 +98,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,91 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,11 +436,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,21 +491,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -496,15 +507,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -514,17 +516,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,121 +571,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1010,7 +1018,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
@@ -1024,11 +1032,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1036,7 +1044,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1044,7 +1052,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1052,15 +1060,15 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" ht="13.5" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1068,23 +1076,23 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1107,60 +1115,100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
-    <col min="3" max="4" width="9.375"/>
-    <col min="5" max="5" width="12.625"/>
+    <col min="1" max="1" width="27.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="1" customWidth="1"/>
+    <col min="4" max="26" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" ht="27" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B3">
-        <v>9005853980</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>20705276</v>
-      </c>
-      <c r="C4">
-        <v>20426187</v>
-      </c>
-      <c r="D4">
-        <v>20263947</v>
-      </c>
-      <c r="E4">
-        <v>18710881116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="9.375"/>
+    <col min="5" max="5" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="base_url" sheetId="3" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
@@ -1118,7 +1118,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1159,15 +1159,15 @@
   <sheetPr/>
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="9.375"/>
     <col min="5" max="5" width="12.625"/>
   </cols>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19890" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base_url" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>expected_code:200</t>
   </si>
   <si>
-    <t>expected_msg:</t>
+    <t>expected_msg:zhangmingyue的云会议室</t>
   </si>
 </sst>
 </file>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,69 +104,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,10 +127,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +198,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,14 +230,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,181 +242,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,21 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +447,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,11 +475,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,32 +527,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +553,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +571,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1017,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="13.5" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1159,15 +1159,15 @@
   <sheetPr/>
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.625" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="4" width="9.375"/>
     <col min="5" max="5" width="12.625"/>
   </cols>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>base_url</t>
   </si>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.4" customHeight="1" outlineLevelCol="1"/>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1118,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1187,8 +1187,8 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>200</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_url" sheetId="3" r:id="rId1"/>
     <sheet name="test_data" sheetId="4" r:id="rId2"/>
     <sheet name="result" sheetId="2" r:id="rId3"/>
-    <sheet name="test" sheetId="5" r:id="rId4"/>
+    <sheet name="responseData" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>base_url</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>expected_msg:zhangmingyue的云会议室</t>
+  </si>
+  <si>
+    <t>responseBody</t>
   </si>
 </sst>
 </file>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,18 +100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,6 +123,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -140,52 +150,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,13 +162,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,14 +169,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,61 +245,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,121 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,41 +439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +459,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +495,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,10 +544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,16 +556,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,115 +574,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="13.5" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1200,14 +1203,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="base_url" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ExpectedResult" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="responseData" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -38,7 +38,99 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -60,47 +152,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -113,59 +166,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -181,187 +181,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,6 +372,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,47 +449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -458,15 +467,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -480,145 +480,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="26.4" customHeight="1"/>
@@ -1154,13 +1154,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col width="27.875" customWidth="1" style="2" min="1" max="1"/>
     <col width="23.75" customWidth="1" style="2" min="2" max="2"/>
@@ -1194,6 +1194,18 @@
       <c r="C3" s="2" t="inlineStr">
         <is>
           <t>device_number:20705276,20426187,20263947,18710881116</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>test_Kickoutmeeting001</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>callNumber:9005853980</t>
         </is>
       </c>
     </row>
@@ -1208,13 +1220,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col width="27.625" customWidth="1" style="1" min="1" max="1"/>
     <col width="19.875" customWidth="1" style="1" min="2" max="2"/>
@@ -1247,6 +1259,18 @@
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>expected_code:200</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>test_Kickoutmeeting001</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>expected_code:200</t>
         </is>
@@ -1263,13 +1287,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col width="27.25" customWidth="1" style="1" min="1" max="1"/>
     <col width="17.625" customWidth="1" style="1" min="2" max="2"/>
@@ -1295,41 +1319,11 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156073010590","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"tian_1","muteStatus":1,"device":{"id":222295272,"type":5,"participantId":"79424","externalUserId":null,"participantNumber":"17010881111"}},{"name":"qa_田雪艳hahha ","muteStatus":1,"device":{"id":24938094,"type":5,"participantId":"75968","externalUserId":null,"participantNumber":"18710881118"}},{"name":"明月ME25-PRDakaakkkka","muteStatus":1,"device":{"id":26536879,"type":8,"participantId":"75648","externalUserId":null,"participantNumber":"20705276"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"65664","externalUserId":null,"participantNumber":"20198942"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"70144","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>test_QueryMeetingStatus002</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>55555</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>test_QueryMeetingStatus003</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>666666</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>test_QueryMeetingStatus004</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>77777</v>
-      </c>
-    </row>
-    <row r="6"/>
+          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156073735713","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"tianceshi_4","muteStatus":1,"device":{"id":21548116,"type":5,"participantId":"66048","externalUserId":null,"participantNumber":"18710881114"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"65728","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"65600","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65984","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19890" windowHeight="7590" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="base_url" sheetId="1" state="visible" r:id="rId1"/>
@@ -38,6 +38,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -45,7 +52,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -54,6 +99,59 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -68,109 +166,11 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -181,25 +181,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,157 +349,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,11 +375,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,6 +401,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,35 +431,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,8 +456,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,145 +480,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>device_number:20705276,20426187,20263947,18710881116</t>
+          <t>device_number:17010881111</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156073735713","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"tianceshi_4","muteStatus":1,"device":{"id":21548116,"type":5,"participantId":"66048","externalUserId":null,"participantNumber":"18710881114"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"65728","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"65600","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65984","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
+          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156074031784","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"怀玉prd18290000004","muteStatus":1,"device":{"id":221656395,"type":5,"participantId":"66432","externalUserId":null,"participantNumber":"18290000004"}},{"name":"tian_1","muteStatus":1,"device":{"id":222295272,"type":5,"participantId":"66368","externalUserId":null,"participantNumber":"17010881111"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"66048","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"65792","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65664","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
         </is>
       </c>
     </row>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
@@ -486,10 +486,10 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
@@ -498,7 +498,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
@@ -507,7 +507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156074031784","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"怀玉prd18290000004","muteStatus":1,"device":{"id":221656395,"type":5,"participantId":"66432","externalUserId":null,"participantNumber":"18290000004"}},{"name":"tian_1","muteStatus":1,"device":{"id":222295272,"type":5,"participantId":"66368","externalUserId":null,"participantNumber":"17010881111"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"66048","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"65792","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65664","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
+          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156074031784","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"怀玉prd18290000004","muteStatus":1,"device":{"id":221656395,"type":5,"participantId":"70720","externalUserId":null,"participantNumber":"18290000004"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"70336","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"70272","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65664","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
         </is>
       </c>
     </row>

--- a/testCase/casedata/conferenceControl_casedate.xlsx
+++ b/testCase/casedata/conferenceControl_casedate.xlsx
@@ -686,74 +686,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1319,7 +1251,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156074031784","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"怀玉prd18290000004","muteStatus":1,"device":{"id":221656395,"type":5,"participantId":"70720","externalUserId":null,"participantNumber":"18290000004"}},{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"70336","externalUserId":null,"participantNumber":"20198942"}},{"name":"薛萍","muteStatus":1,"device":{"id":30676188,"type":2,"participantId":"70272","externalUserId":null,"participantNumber":"129170"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"65664","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
+          <t>{"meetingRoomNumber":"9005853980@CONFNO","meetingId":"1156075179289","meetingName":"zhangmingyue的云会议室","mode":1,"mainVenue":null,"mainImage":null,"deviceStatusList":[{"name":"视频会议终端20198942aa","muteStatus":1,"device":{"id":28089523,"type":8,"participantId":"262400","externalUserId":null,"participantNumber":"20198942"}},{"name":"xueyanME90-prd","muteStatus":1,"device":{"id":60139173,"type":7,"participantId":"262272","externalUserId":null,"participantNumber":"60139173"}}],"handUpList":[],"recordingDevice":null,"contentDevice":null,"whiteBoardDevice":null}</t>
         </is>
       </c>
     </row>
